--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5081956-90.2020.8.21.0001</t>
+          <t>5056780-46.2019.8.21.0001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0009703-20.2005.8.21.0001</t>
+          <t>0140462-81.2019.8.21.0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,12 +470,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5034708-12.2012.8.21.0001</t>
+          <t>5000559-78.2019.8.21.0054</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0157007-76.2012.8.21.0001</t>
+          <t>0003337-09.2019.8.21.0054</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,168 +487,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5034648-73.2011.8.21.0001</t>
+          <t>5009986-45.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0270905-04.2011.8.21.0001</t>
+          <t>0323125-76.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5034637-44.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0271851-73.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5034649-58.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0263907-20.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5039808-69.2017.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0138344-06.2017.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5039807-84.2017.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0210980-67.2017.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5000274-94.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0265929-17.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5000289-97.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0413692-56.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5000294-22.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0413733-23.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>6600294-22.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0270905-04.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>8880294-22.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0138344-06.2017.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>Digitalizado</t>
         </is>

--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,57 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>5056780-46.2019.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0140462-81.2019.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>5000559-78.2019.8.21.0054</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0003337-09.2019.8.21.0054</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>5009986-45.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0323125-76.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,125 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5010754-58.2017.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0196807-38.2017.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5008281-41.2013.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0087776-25.2013.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5001221-76.2018.8.21.0054</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9000149-83.2018.8.21.0054</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5006432-89.2018.8.21.0023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9003986-45.2018.8.21.0023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5006429-37.2018.8.21.0023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9003787-23.2018.8.21.0023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5009614-96.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0420415-91.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5033806-25.2013.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0007850-16.2013.8.21.3001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,46 +453,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5010754-58.2017.8.21.0001</t>
+          <t>5002020-12.2020.8.21.0067</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0196807-38.2017.8.21.0001</t>
+          <t>9000539-43.2020.8.21.0067</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5008281-41.2013.8.21.0001</t>
+          <t>5002025-34.2020.8.21.0067</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0087776-25.2013.8.21.0001</t>
+          <t>9000434-66.2020.8.21.0067</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5001221-76.2018.8.21.0054</t>
+          <t>5000995-32.2018.8.21.0067</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9000149-83.2018.8.21.0054</t>
+          <t>9000796-39.2018.8.21.0067</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,12 +504,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5006432-89.2018.8.21.0023</t>
+          <t>5002032-26.2020.8.21.0067</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9003986-45.2018.8.21.0023</t>
+          <t>9000450-20.2020.8.21.0067</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -521,29 +521,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5006429-37.2018.8.21.0023</t>
+          <t>5000229-27.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9003787-23.2018.8.21.0023</t>
+          <t>0420539-74.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5009614-96.2011.8.21.0001</t>
+          <t>5000297-74.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0420415-91.2011.8.21.0001</t>
+          <t>0413928-08.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,17 +555,153 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5033806-25.2013.8.21.0001</t>
+          <t>5000320-49.2013.8.21.0001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0007850-16.2013.8.21.3001</t>
+          <t>0044684-94.2013.8.21.0001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5003815-38.2012.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0023925-46.2012.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5002031-41.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9000380-03.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5002033-11.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9000365-34.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5002037-48.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9000624-29.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5002090-63.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9001254-22.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5002030-56.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9000405-16.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5002091-48.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9001270-73.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5092615-95.2019.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9015530-62.2019.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Migrado</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,80 +453,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5002020-12.2020.8.21.0067</t>
+          <t>5035699-12.2017.8.21.0001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9000539-43.2020.8.21.0067</t>
+          <t>0161621-51.2017.8.21.0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5002025-34.2020.8.21.0067</t>
+          <t>5000273-46.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9000434-66.2020.8.21.0067</t>
+          <t>0420275-57.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5000995-32.2018.8.21.0067</t>
+          <t>5000274-31.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9000796-39.2018.8.21.0067</t>
+          <t>0413893-48.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5002032-26.2020.8.21.0067</t>
+          <t>5004401-12.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9000450-20.2020.8.21.0067</t>
+          <t>0376983-22.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5000229-27.2011.8.21.0001</t>
+          <t>5000256-73.2012.8.21.0001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0420539-74.2011.8.21.0001</t>
+          <t>0023506-26.2012.8.21.0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,12 +538,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5000297-74.2011.8.21.0001</t>
+          <t>5000271-42.2012.8.21.0001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0413928-08.2011.8.21.0001</t>
+          <t>0351565-48.2012.8.21.0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,153 +555,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5000320-49.2013.8.21.0001</t>
+          <t>5000293-03.2012.8.21.0001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0044684-94.2013.8.21.0001</t>
+          <t>0342323-65.2012.8.21.0001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5003815-38.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0023925-46.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5002031-41.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>9000380-03.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5002033-11.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>9000365-34.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>5002037-48.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>9000624-29.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5002090-63.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>9001254-22.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5002030-56.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>9000405-16.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>5002091-48.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>9001270-73.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>5092615-95.2019.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>9015530-62.2019.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Migrado</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,119 +453,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5035699-12.2017.8.21.0001</t>
+          <t>5001404-20.2017.8.21.0042</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0161621-51.2017.8.21.0001</t>
+          <t>9000985-29.2017.8.21.0042</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5000273-46.2011.8.21.0001</t>
+          <t>5001392-06.2017.8.21.0042</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0420275-57.2011.8.21.0001</t>
+          <t>9001086-66.2017.8.21.0042</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>5000274-31.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0413893-48.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5004401-12.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0376983-22.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5000256-73.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0023506-26.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5000271-42.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0351565-48.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5000293-03.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0342323-65.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5001404-20.2017.8.21.0042</t>
+          <t>5002093-18.2019.8.21.0067</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9000985-29.2017.8.21.0042</t>
+          <t>9000698-20.2019.8.21.0067</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,17 +470,340 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5001392-06.2017.8.21.0042</t>
+          <t>5002094-03.2019.8.21.0067</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9001086-66.2017.8.21.0042</t>
+          <t>9001132-09.2019.8.21.0067</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5000997-02.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9000692-47.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5002039-18.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9000407-83.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5000998-84.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9000870-93.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5002095-85.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9000724-18.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5002096-70.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9000532-85.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5002097-55.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9000464-38.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5053427-32.2018.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9068801-20.2018.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5035085-12.2014.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0395366-43.2014.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5013439-53.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1253081-20.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5013439-53.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1253081-20.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5013439-53.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1253081-20.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5013439-53.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1253081-20.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5013439-53.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1253081-20.2008.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>5014763-10.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3103141-73.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5014763-10.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3103141-73.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5014763-10.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3103141-73.2010.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>5029278-74.2015.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0199864-35.2015.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5002539-45.2007.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0183341-26.2007.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5020879-61.2012.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0026384-42.2012.8.21.3001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5002093-18.2019.8.21.0067</t>
+          <t>5002825-34.2018.8.21.0002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9000698-20.2019.8.21.0067</t>
+          <t>9000482-94.2018.8.21.0002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,114 +470,114 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5002094-03.2019.8.21.0067</t>
+          <t>5034684-18.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9001132-09.2019.8.21.0067</t>
+          <t>0111143-49.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5000997-02.2018.8.21.0067</t>
+          <t>5029337-62.2015.8.21.0001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9000692-47.2018.8.21.0067</t>
+          <t>0090773-10.2015.8.21.0001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5002039-18.2020.8.21.0067</t>
+          <t>5039775-79.2017.8.21.0001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9000407-83.2020.8.21.0067</t>
+          <t>0039384-15.2017.8.21.0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5000998-84.2018.8.21.0067</t>
+          <t>5029499-57.2015.8.21.0001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9000870-93.2018.8.21.0067</t>
+          <t>0136341-49.2015.8.21.0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5002095-85.2019.8.21.0067</t>
+          <t>5028728-21.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9000724-18.2019.8.21.0067</t>
+          <t>0344069-02.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5002096-70.2019.8.21.0067</t>
+          <t>5028728-21.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9000532-85.2019.8.21.0067</t>
+          <t>0344069-02.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5002097-55.2019.8.21.0067</t>
+          <t>5001806-14.2020.8.21.0134</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9000464-38.2019.8.21.0067</t>
+          <t>9000364-42.2020.8.21.0134</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -589,29 +589,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5053427-32.2018.8.21.0001</t>
+          <t>5032111-07.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9068801-20.2018.8.21.0001</t>
+          <t>0111095-90.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5035085-12.2014.8.21.0001</t>
+          <t>5033921-46.2013.8.21.0001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0395366-43.2014.8.21.0001</t>
+          <t>0037413-34.2013.8.21.0001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,12 +623,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5013439-53.2008.8.21.0001</t>
+          <t>5033938-82.2013.8.21.0001</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1253081-20.2008.8.21.0001</t>
+          <t>0084903-52.2013.8.21.0001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -640,12 +640,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5013439-53.2008.8.21.0001</t>
+          <t>5033938-82.2013.8.21.0001</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1253081-20.2008.8.21.0001</t>
+          <t>0084903-52.2013.8.21.0001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -657,12 +657,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5013439-53.2008.8.21.0001</t>
+          <t>5034971-78.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1253081-20.2008.8.21.0001</t>
+          <t>0108702-95.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -674,12 +674,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5013439-53.2008.8.21.0001</t>
+          <t>5034971-78.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1253081-20.2008.8.21.0001</t>
+          <t>0108702-95.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -691,12 +691,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5013439-53.2008.8.21.0001</t>
+          <t>5039859-80.2017.8.21.0001</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1253081-20.2008.8.21.0001</t>
+          <t>0129049-42.2017.8.21.0001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -708,12 +708,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5014763-10.2010.8.21.0001</t>
+          <t>5015478-52.2010.8.21.0001</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3103141-73.2010.8.21.0001</t>
+          <t>2626731-39.2010.8.21.0001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -725,12 +725,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5014763-10.2010.8.21.0001</t>
+          <t>5015600-65.2010.8.21.0001</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3103141-73.2010.8.21.0001</t>
+          <t>0155171-39.2010.8.21.0001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -742,12 +742,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5014763-10.2010.8.21.0001</t>
+          <t>5034891-17.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3103141-73.2010.8.21.0001</t>
+          <t>0243442-87.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -759,12 +759,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5029278-74.2015.8.21.0001</t>
+          <t>5034891-17.2011.8.21.0001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0199864-35.2015.8.21.0001</t>
+          <t>0243442-87.2011.8.21.0001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -776,34 +776,153 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5002539-45.2007.8.21.0001</t>
+          <t>5001001-39.2018.8.21.0067</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0183341-26.2007.8.21.0001</t>
+          <t>9000812-90.2018.8.21.0067</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5020879-61.2012.8.21.0001</t>
+          <t>5002047-92.2020.8.21.0067</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0026384-42.2012.8.21.3001</t>
+          <t>9000436-36.2020.8.21.0067</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5002099-25.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9000760-60.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5001002-24.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9000850-05.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5002100-10.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9000786-58.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5002101-92.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9000444-47.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5002102-77.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9000756-23.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>5002103-62.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9000754-53.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>5002104-47.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9000700-87.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Migrado</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5002825-34.2018.8.21.0002</t>
+          <t>5018241-75.2020.8.21.0033</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9000482-94.2018.8.21.0002</t>
+          <t>9000749-02.2020.8.21.0033</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,12 +470,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5034684-18.2011.8.21.0001</t>
+          <t>5006227-49.2006.8.21.0001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0111143-49.2011.8.21.0001</t>
+          <t>1337741-15.2006.8.21.0001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,440 +487,66 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5029337-62.2015.8.21.0001</t>
+          <t>5018241-75.2020.8.21.0033</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0090773-10.2015.8.21.0001</t>
+          <t>9000749-02.2020.8.21.0033</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5039775-79.2017.8.21.0001</t>
+          <t>5093406-64.2019.8.21.0001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0039384-15.2017.8.21.0001</t>
+          <t>9018514-19.2019.8.21.0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5029499-57.2015.8.21.0001</t>
+          <t>5093438-69.2019.8.21.0001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0136341-49.2015.8.21.0001</t>
+          <t>9020456-86.2019.8.21.0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5028728-21.2011.8.21.0001</t>
+          <t>5093440-39.2019.8.21.0001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0344069-02.2011.8.21.0001</t>
+          <t>9021532-48.2019.8.21.0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5028728-21.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0344069-02.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5001806-14.2020.8.21.0134</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>9000364-42.2020.8.21.0134</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5032111-07.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0111095-90.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5033921-46.2013.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0037413-34.2013.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>5033938-82.2013.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0084903-52.2013.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5033938-82.2013.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0084903-52.2013.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5034971-78.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0108702-95.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>5034971-78.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0108702-95.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>5039859-80.2017.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0129049-42.2017.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>5015478-52.2010.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2626731-39.2010.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>5015600-65.2010.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0155171-39.2010.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>5034891-17.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0243442-87.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>5034891-17.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0243442-87.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>5001001-39.2018.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>9000812-90.2018.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>5002047-92.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>9000436-36.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>5002099-25.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>9000760-60.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>5001002-24.2018.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>9000850-05.2018.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>5002100-10.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>9000786-58.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>5002101-92.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>9000444-47.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>5002102-77.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>9000756-23.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>5002103-62.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>9000754-53.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>5002104-47.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>9000700-87.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>Migrado</t>
         </is>

--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5018241-75.2020.8.21.0033</t>
+          <t>5001809-74.2017.8.21.0036</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9000749-02.2020.8.21.0033</t>
+          <t>9002336-55.2017.8.21.0036</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,29 +470,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5006227-49.2006.8.21.0001</t>
+          <t>5002735-26.2018.8.21.0002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1337741-15.2006.8.21.0001</t>
+          <t>9000271-58.2018.8.21.0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5018241-75.2020.8.21.0033</t>
+          <t>5002731-86.2018.8.21.0002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9000749-02.2020.8.21.0033</t>
+          <t>9000433-53.2018.8.21.0002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,49 +504,389 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5093406-64.2019.8.21.0001</t>
+          <t>5035108-55.2014.8.21.0001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9018514-19.2019.8.21.0001</t>
+          <t>0028693-44.2014.8.21.0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5093438-69.2019.8.21.0001</t>
+          <t>5035108-55.2014.8.21.0001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9020456-86.2019.8.21.0001</t>
+          <t>0028693-44.2014.8.21.0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5093440-39.2019.8.21.0001</t>
+          <t>5035108-55.2014.8.21.0001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9021532-48.2019.8.21.0001</t>
+          <t>0028693-44.2014.8.21.0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5035108-55.2014.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0028693-44.2014.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5009658-08.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9003683-34.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5002111-39.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9000482-59.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5002115-76.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9001255-07.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5001005-76.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9000856-12.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5002061-76.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9000182-63.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5002116-61.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9000433-18.2019.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5002062-61.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9000400-91.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5001006-61.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9000817-15.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>5002063-46.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9000178-26.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5002065-16.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9000388-77.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5001007-46.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9000790-32.2018.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>5002068-68.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9000458-94.2020.8.21.0067</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5000282-08.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0302109-66.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5034992-20.2012.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0303805-06.2012.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5009659-90.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9005551-47.2018.8.21.0022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5002741-33.2018.8.21.0002</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9000456-96.2018.8.21.0002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5008759-20.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0148964-87.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5019558-25.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0218063-47.2011.8.21.0001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Digitalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5125809-52.2020.8.21.0001</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9001529-57.2020.8.21.0027</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Migrado</t>
         </is>

--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,131 +453,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5001809-74.2017.8.21.0036</t>
+          <t>5015948-83.2010.8.21.0001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9002336-55.2017.8.21.0036</t>
+          <t>1999701-78.2010.8.21.0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5002735-26.2018.8.21.0002</t>
+          <t>5015948-83.2010.8.21.0001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9000271-58.2018.8.21.0002</t>
+          <t>1999701-78.2010.8.21.0001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5002731-86.2018.8.21.0002</t>
+          <t>5015948-83.2010.8.21.0001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9000433-53.2018.8.21.0002</t>
+          <t>1999701-78.2010.8.21.0001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Digitalizado</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5035108-55.2014.8.21.0001</t>
+          <t>5016829-79.2019.8.21.0022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0028693-44.2014.8.21.0001</t>
+          <t>9000968-82.2019.8.21.0022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5035108-55.2014.8.21.0001</t>
+          <t>5016824-57.2019.8.21.0022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0028693-44.2014.8.21.0001</t>
+          <t>9007972-73.2019.8.21.0022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5035108-55.2014.8.21.0001</t>
+          <t>5009671-07.2018.8.21.0022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0028693-44.2014.8.21.0001</t>
+          <t>9009420-18.2018.8.21.0022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5035108-55.2014.8.21.0001</t>
+          <t>5009668-52.2018.8.21.0022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0028693-44.2014.8.21.0001</t>
+          <t>9009424-55.2018.8.21.0022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5009658-08.2018.8.21.0022</t>
+          <t>5009667-67.2018.8.21.0022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9003683-34.2018.8.21.0022</t>
+          <t>9008752-47.2018.8.21.0022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -589,12 +589,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5002111-39.2019.8.21.0067</t>
+          <t>5009665-97.2018.8.21.0022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9000482-59.2019.8.21.0067</t>
+          <t>9009358-75.2018.8.21.0022</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5002115-76.2019.8.21.0067</t>
+          <t>5009663-30.2018.8.21.0022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9001255-07.2019.8.21.0067</t>
+          <t>9007912-37.2018.8.21.0022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,12 +623,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5001005-76.2018.8.21.0067</t>
+          <t>5001397-28.2017.8.21.0042</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9000856-12.2018.8.21.0067</t>
+          <t>9001059-83.2017.8.21.0042</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -640,255 +640,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5002061-76.2020.8.21.0067</t>
+          <t>5072049-91.2020.8.21.0001</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9000182-63.2020.8.21.0067</t>
+          <t>3221931-89.2005.8.21.0001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5002116-61.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>9000433-18.2019.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>5002062-61.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>9000400-91.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>5001006-61.2018.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>9000817-15.2018.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>5002063-46.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>9000178-26.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>5002065-16.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>9000388-77.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>5001007-46.2018.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>9000790-32.2018.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>5002068-68.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>9000458-94.2020.8.21.0067</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>5000282-08.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0302109-66.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>5034992-20.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0303805-06.2012.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>5009659-90.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>9005551-47.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>5002741-33.2018.8.21.0002</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>9000456-96.2018.8.21.0002</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>5008759-20.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0148964-87.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>5019558-25.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0218063-47.2011.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>5125809-52.2020.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>9001529-57.2020.8.21.0027</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Migrado</t>
         </is>
       </c>
     </row>

--- a/Correcao EPROC/Resultado filtrado.xlsx
+++ b/Correcao EPROC/Resultado filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,202 +453,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5015948-83.2010.8.21.0001</t>
+          <t>5001327-37.2021.8.21.0085</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1999701-78.2010.8.21.0001</t>
+          <t>9000091-79.2021.8.21.0085</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Digitalizado</t>
+          <t>Migrado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5015948-83.2010.8.21.0001</t>
+          <t>5003574-61.2017.8.21.0010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1999701-78.2010.8.21.0001</t>
+          <t>0020708-89.2017.8.21.0010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>5015948-83.2010.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1999701-78.2010.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Digitalizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5016829-79.2019.8.21.0022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>9000968-82.2019.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5016824-57.2019.8.21.0022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>9007972-73.2019.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5009671-07.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>9009420-18.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5009668-52.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>9009424-55.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5009667-67.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>9008752-47.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5009665-97.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>9009358-75.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5009663-30.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>9007912-37.2018.8.21.0022</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>5001397-28.2017.8.21.0042</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>9001059-83.2017.8.21.0042</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5072049-91.2020.8.21.0001</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3221931-89.2005.8.21.0001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>Digitalizado</t>
         </is>
